--- a/yjc/操作总览.xlsx
+++ b/yjc/操作总览.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Jobs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rang\yjc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,12 @@
     <sheet name="进口" sheetId="4" r:id="rId1"/>
     <sheet name="单票流程" sheetId="5" r:id="rId2"/>
     <sheet name="总览" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="41" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="360">
   <si>
     <t>确报理货</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1346,20 +1350,175 @@
     <t>一般开船后两三天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>KMM HMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到孙丹发来订舱托书(CK也收到)</t>
+  </si>
+  <si>
+    <t>收到孙丹发来订舱托书(CK也收到)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般周四</t>
+  </si>
+  <si>
+    <t>一般周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做做箱数据，邮件群发</t>
+  </si>
+  <si>
+    <t>做做箱数据，邮件群发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据装箱计划汇总包装数据，发各工厂做报关资料</t>
+  </si>
+  <si>
+    <t>根据装箱计划汇总包装数据，发各工厂做报关资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到工厂发来报关资料并完善</t>
+  </si>
+  <si>
+    <t>收到工厂发来报关资料并完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天至隔天</t>
+  </si>
+  <si>
+    <t>当天至隔天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知发舱单</t>
+  </si>
+  <si>
+    <t>通知发舱单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据港区</t>
+  </si>
+  <si>
+    <t>根据港区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知进港，进港(核对数据)，通知报关，报关成功</t>
+  </si>
+  <si>
+    <t>收到CK发来预配(做箱通知)</t>
+  </si>
+  <si>
+    <t>收到CK发来预配(做箱通知)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到包装厂(刘倩梅)发来包装指示书和装箱计划</t>
+  </si>
+  <si>
+    <t>收到包装厂(刘倩梅)发来包装指示书和装箱计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报关资料齐了，发报关行(黄寅文)</t>
+  </si>
+  <si>
+    <t>报关资料齐了，发报关行(黄寅文)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群发装箱单和洋山提箱截图(如有)</t>
+  </si>
+  <si>
+    <t>群发装箱单和洋山提箱截图(如有)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知进港，进港(核对数据)，通知报关，报关成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0430发的预配有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般KMM五、HMI日</t>
+  </si>
+  <si>
+    <t>一般KMM五、HMI日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到车队(沈丽)装箱单和洋山提箱截图(如有)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到车队(沈丽)装箱单和洋山提箱截图(如有)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>KMM</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>(空白)</t>
+  </si>
+  <si>
+    <t>1907190/HDMUQSWB4063465
+1907455/HDMUQSWB4063466
+1907456/HDMUQSWB4063474
+箱号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
+    <t>计数项:预计</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="mm/dd\ hh:mm"/>
     <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
     <numFmt numFmtId="178" formatCode="mmdd\ hhmm"/>
     <numFmt numFmtId="179" formatCode="mm/dd"/>
     <numFmt numFmtId="180" formatCode="00_)"/>
     <numFmt numFmtId="181" formatCode="mmdd"/>
+    <numFmt numFmtId="183" formatCode="mm/dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1388,6 +1547,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1524,7 +1689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1609,11 +1774,101 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode="mm/dd;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode="mm/dd;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode="mm/dd;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode="mm/dd;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1684,37 +1939,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1762,6 +1986,7 @@
         <name val="等线"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="180" formatCode="00_)"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1795,6 +2020,7 @@
         <name val="等线"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="180" formatCode="00_)"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1955,11 +2181,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2092,11 +2313,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="178" formatCode="mmdd\ hhmm"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2177,13 +2393,6 @@
     <dxf>
       <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2203,69 +2412,1940 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="yjc" refreshedDate="43592.390434143519" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="168">
+  <cacheSource type="worksheet">
+    <worksheetSource name="表3"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="项目" numFmtId="0">
+      <sharedItems count="3">
+        <s v="JS mobis"/>
+        <s v="HMI"/>
+        <s v="KMM"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ETD" numFmtId="181">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-05-10T00:00:00" maxDate="2019-05-18T00:00:00" count="3">
+        <d v="2019-05-10T00:00:00"/>
+        <d v="2019-05-15T00:00:00"/>
+        <d v="2019-05-17T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="主序" numFmtId="180">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
+    </cacheField>
+    <cacheField name="从序" numFmtId="180">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="19"/>
+    </cacheField>
+    <cacheField name="内容" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="预计" numFmtId="179">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-05-07T00:00:00" maxDate="2019-05-16T00:00:00" count="9">
+        <m/>
+        <d v="2019-05-07T00:00:00"/>
+        <d v="2019-05-08T00:00:00"/>
+        <d v="2019-05-09T00:00:00"/>
+        <d v="2019-05-10T00:00:00"/>
+        <d v="2019-05-11T10:00:00"/>
+        <d v="2019-05-12T00:00:00"/>
+        <d v="2019-05-13T00:00:00"/>
+        <d v="2019-05-15T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="实际" numFmtId="179">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-04-26T00:00:00" maxDate="2019-05-08T00:00:00"/>
+    </cacheField>
+    <cacheField name="备注" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="168">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="1907190/HDMUQSWB4063465_x000a_1907455/HDMUQSWB4063466_x000a_1907456/HDMUQSWB4063474_x000a_箱号："/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="收到客户(周嘉敏)订舱预报"/>
+    <x v="0"/>
+    <d v="2019-04-26T00:00:00"/>
+    <s v="一般周五发隔周"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="收到HMM(Neo)预订舱邮件通知"/>
+    <x v="0"/>
+    <d v="2019-04-28T00:00:00"/>
+    <s v="一般周一发下周"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="回复HMM(Neo)预订舱邮件"/>
+    <x v="0"/>
+    <d v="2019-04-28T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="收到HMM(Neo)预订舱确认"/>
+    <x v="0"/>
+    <d v="2019-04-28T00:00:00"/>
+    <s v="一般马上"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="公共盘生成提单号"/>
+    <x v="0"/>
+    <d v="2019-04-28T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="5"/>
+    <s v="YJC系统生成单子"/>
+    <x v="0"/>
+    <d v="2019-04-28T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="6"/>
+    <s v="发EDI"/>
+    <x v="0"/>
+    <d v="2019-04-28T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="7"/>
+    <s v="邮件申请放单"/>
+    <x v="0"/>
+    <d v="2019-04-28T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="8"/>
+    <s v="收到HMM(Neo) 放单确认"/>
+    <x v="0"/>
+    <d v="2019-04-29T00:00:00"/>
+    <s v="一般半天内"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="9"/>
+    <s v="HMM网站核对订舱信息"/>
+    <x v="0"/>
+    <d v="2019-04-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="收到客户(周嘉敏)做箱通知"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <s v="一般做箱头天一早"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="发做箱通知邮件给车队(沈丽)"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+    <s v="公共盘生成提单号【如需拆单】"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="4"/>
+    <s v="YJC系统生成单子【如需拆单】"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="5"/>
+    <s v="发EDI【如需拆单】"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="6"/>
+    <s v="邮件申请放单【如需拆单】"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="7"/>
+    <s v="收到HMM(Neo) 放单确认【如需拆单】"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="8"/>
+    <s v="HMM网站核对订舱信息【如需拆单】"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="收到客户(周嘉敏)发来做箱数据(报关资料)"/>
+    <x v="1"/>
+    <m/>
+    <s v="一般做箱当天一早"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="2"/>
+    <s v="按报关(发票)数生成提单号【如发票数超过提单数】"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="3"/>
+    <s v="做做箱数据，QQ发车队(沈丽)"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+    <s v="做报关资料，扫描发报关行(黄寅文)QQ"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="5"/>
+    <s v="收到车队(沈丽)装箱单"/>
+    <x v="1"/>
+    <m/>
+    <s v="一般马上"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="6"/>
+    <s v="YJC系统填截单数据，发EDI，邮件HMM(He)生成提单"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="7"/>
+    <s v="收到HMM(He)生成提单通知"/>
+    <x v="1"/>
+    <m/>
+    <s v="一般马上"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="8"/>
+    <s v="HMM网站核对提单信息"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="9"/>
+    <s v="做保函给邹师傅"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="10"/>
+    <s v="发VGM和舱单"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="11"/>
+    <s v="做ISF，发国外资料"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="12"/>
+    <s v="买保险"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="13"/>
+    <s v="盯海关网站舱单"/>
+    <x v="1"/>
+    <m/>
+    <s v="一般两小时左右"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="14"/>
+    <s v="核对舱单信息"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="15"/>
+    <s v="收到报关行(黄寅文)校对稿，邮件发客户(周嘉敏)确认"/>
+    <x v="1"/>
+    <m/>
+    <s v="一般半天内"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="16"/>
+    <s v="收到客户(周嘉敏)确认校对稿，通知报关行(黄寅文)"/>
+    <x v="1"/>
+    <m/>
+    <s v="一般马上"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="17"/>
+    <s v="通知报关行(黄寅文)报关(需有开港)"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="18"/>
+    <s v="收到报关成功通知"/>
+    <x v="1"/>
+    <m/>
+    <s v="一般下班前"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="19"/>
+    <s v="通知车队(沈丽)可进港"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1"/>
+    <s v="盯箱子进港"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <s v="核对进港数据"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="3"/>
+    <s v="盯海放"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="4"/>
+    <s v="盯码放"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="5"/>
+    <s v="盯配载"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="1"/>
+    <s v="做费用"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="2"/>
+    <s v="发账单"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="1"/>
+    <s v="放单"/>
+    <x v="5"/>
+    <m/>
+    <s v="一般开船后两三天"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="收到孙丹发来订舱托书(CK也收到)"/>
+    <x v="0"/>
+    <d v="2019-04-30T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="收到CK发来预配(做箱通知)"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="收到包装厂(刘倩梅)发来包装指示书和装箱计划"/>
+    <x v="3"/>
+    <m/>
+    <s v="一般周四"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="根据装箱计划汇总包装数据，发各工厂做报关资料"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <s v="做做箱数据，邮件群发"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="收到工厂发来报关资料并完善"/>
+    <x v="3"/>
+    <m/>
+    <s v="当天至隔天"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="3"/>
+    <s v="报关资料齐了，发报关行(黄寅文)"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="1"/>
+    <s v="收到车队(沈丽)装箱单和洋山提箱截图(如有)"/>
+    <x v="6"/>
+    <m/>
+    <s v="一般KMM五、HMI日"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="2"/>
+    <s v="群发装箱单和洋山提箱截图(如有)"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="3"/>
+    <s v="通知发舱单"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="1"/>
+    <s v="通知进港，进港(核对数据)，通知报关，报关成功"/>
+    <x v="7"/>
+    <m/>
+    <s v="根据港区"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="1"/>
+    <s v="盯海放"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="2"/>
+    <s v="盯码放"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="3"/>
+    <s v="盯配载"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="1"/>
+    <s v="做费用"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="2"/>
+    <s v="发账单"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="收到客户(周嘉敏)订舱预报"/>
+    <x v="0"/>
+    <d v="2019-04-26T00:00:00"/>
+    <s v="一般周五发隔周"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="收到HMM(Neo)预订舱邮件通知"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <s v="一般周一发下周"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="回复HMM(Neo)预订舱邮件"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="收到HMM(Neo)预订舱确认"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <s v="一般马上"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="公共盘生成提单号"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="5"/>
+    <s v="YJC系统生成单子"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="6"/>
+    <s v="发EDI"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="7"/>
+    <s v="邮件申请放单"/>
+    <x v="0"/>
+    <d v="2019-05-07T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8"/>
+    <s v="收到HMM(Neo) 放单确认"/>
+    <x v="0"/>
+    <d v="2019-05-07T00:00:00"/>
+    <s v="一般半天内"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="9"/>
+    <s v="HMM网站核对订舱信息"/>
+    <x v="0"/>
+    <d v="2019-05-07T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="收到客户(周嘉敏)做箱通知"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般做箱头天一早"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="发做箱通知邮件给车队(沈丽)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <s v="公共盘生成提单号【如需拆单】"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="4"/>
+    <s v="YJC系统生成单子【如需拆单】"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="5"/>
+    <s v="发EDI【如需拆单】"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="6"/>
+    <s v="邮件申请放单【如需拆单】"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="7"/>
+    <s v="收到HMM(Neo) 放单确认【如需拆单】"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="8"/>
+    <s v="HMM网站核对订舱信息【如需拆单】"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="收到客户(周嘉敏)发来做箱数据(报关资料)"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般做箱当天一早"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="2"/>
+    <s v="按报关(发票)数生成提单号【如发票数超过提单数】"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="3"/>
+    <s v="做做箱数据，QQ发车队(沈丽)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="4"/>
+    <s v="做报关资料，扫描发报关行(黄寅文)QQ"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="5"/>
+    <s v="收到车队(沈丽)装箱单"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般马上"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="6"/>
+    <s v="YJC系统填截单数据，发EDI，邮件HMM(He)生成提单"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="7"/>
+    <s v="收到HMM(He)生成提单通知"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般马上"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="8"/>
+    <s v="HMM网站核对提单信息"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="9"/>
+    <s v="做保函给邹师傅"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="10"/>
+    <s v="发VGM和舱单"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="11"/>
+    <s v="做ISF，发国外资料"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="12"/>
+    <s v="买保险"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="13"/>
+    <s v="盯海关网站舱单"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般两小时左右"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="14"/>
+    <s v="核对舱单信息"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="15"/>
+    <s v="收到报关行(黄寅文)校对稿，邮件发客户(周嘉敏)确认"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般半天内"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="16"/>
+    <s v="收到客户(周嘉敏)确认校对稿，通知报关行(黄寅文)"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般马上"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="17"/>
+    <s v="通知报关行(黄寅文)报关(需有开港)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="18"/>
+    <s v="收到报关成功通知"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般下班前"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="19"/>
+    <s v="通知车队(沈丽)可进港"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="1"/>
+    <s v="盯箱子进港"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="2"/>
+    <s v="核对进港数据"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="3"/>
+    <s v="盯海放"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="4"/>
+    <s v="盯码放"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="5"/>
+    <s v="盯配载"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="1"/>
+    <s v="做费用"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="2"/>
+    <s v="发账单"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="1"/>
+    <s v="放单"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般开船后两三天"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="收到孙丹发来订舱托书(CK也收到)"/>
+    <x v="0"/>
+    <d v="2019-04-30T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="收到CK发来预配(做箱通知)"/>
+    <x v="1"/>
+    <m/>
+    <s v="0430发的预配有问题"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="收到包装厂(刘倩梅)发来包装指示书和装箱计划"/>
+    <x v="3"/>
+    <m/>
+    <s v="一般周四"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="根据装箱计划汇总包装数据，发各工厂做报关资料"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <s v="做做箱数据，邮件群发"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="收到工厂发来报关资料并完善"/>
+    <x v="3"/>
+    <m/>
+    <s v="当天至隔天"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="3"/>
+    <s v="报关资料齐了，发报关行(黄寅文)"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="1"/>
+    <s v="收到车队(沈丽)装箱单和洋山提箱截图(如有)"/>
+    <x v="4"/>
+    <m/>
+    <s v="一般KMM五、HMI日"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="2"/>
+    <s v="群发装箱单和洋山提箱截图(如有)"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="3"/>
+    <s v="通知发舱单"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="1"/>
+    <s v="通知进港，进港(核对数据)，通知报关，报关成功"/>
+    <x v="0"/>
+    <m/>
+    <s v="根据港区"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="1"/>
+    <s v="盯海放"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="2"/>
+    <s v="盯码放"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="3"/>
+    <s v="盯配载"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="1"/>
+    <s v="做费用"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="2"/>
+    <s v="发账单"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="收到客户(周嘉敏)订舱预报"/>
+    <x v="0"/>
+    <d v="2019-04-26T00:00:00"/>
+    <s v="一般周五发隔周"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="收到HMM(Neo)预订舱邮件通知"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <s v="一般周一发下周"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="回复HMM(Neo)预订舱邮件"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="3"/>
+    <s v="收到HMM(Neo)预订舱确认"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <s v="一般马上"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="4"/>
+    <s v="公共盘生成提单号"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="5"/>
+    <s v="YJC系统生成单子"/>
+    <x v="0"/>
+    <d v="2019-05-06T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="6"/>
+    <s v="发EDI"/>
+    <x v="0"/>
+    <d v="2019-05-07T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="7"/>
+    <s v="邮件申请放单"/>
+    <x v="0"/>
+    <d v="2019-05-07T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="8"/>
+    <s v="收到HMM(Neo) 放单确认"/>
+    <x v="0"/>
+    <d v="2019-05-07T00:00:00"/>
+    <s v="一般半天内"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="9"/>
+    <s v="HMM网站核对订舱信息"/>
+    <x v="0"/>
+    <d v="2019-05-07T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <s v="收到客户(周嘉敏)做箱通知"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般做箱头天一早"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <s v="发做箱通知邮件给车队(沈丽)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <s v="公共盘生成提单号【如需拆单】"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <s v="YJC系统生成单子【如需拆单】"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="5"/>
+    <s v="发EDI【如需拆单】"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="6"/>
+    <s v="邮件申请放单【如需拆单】"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="7"/>
+    <s v="收到HMM(Neo) 放单确认【如需拆单】"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="8"/>
+    <s v="HMM网站核对订舱信息【如需拆单】"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <s v="收到客户(周嘉敏)发来做箱数据(报关资料)"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般做箱当天一早"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="2"/>
+    <s v="按报关(发票)数生成提单号【如发票数超过提单数】"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="3"/>
+    <s v="做做箱数据，QQ发车队(沈丽)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="4"/>
+    <s v="做报关资料，扫描发报关行(黄寅文)QQ"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="5"/>
+    <s v="收到车队(沈丽)装箱单"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般马上"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="6"/>
+    <s v="YJC系统填截单数据，发EDI，邮件HMM(He)生成提单"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="7"/>
+    <s v="收到HMM(He)生成提单通知"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般马上"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="8"/>
+    <s v="HMM网站核对提单信息"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="9"/>
+    <s v="做保函给邹师傅"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="10"/>
+    <s v="发VGM和舱单"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="11"/>
+    <s v="做ISF，发国外资料"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="12"/>
+    <s v="买保险"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="13"/>
+    <s v="盯海关网站舱单"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般两小时左右"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="14"/>
+    <s v="核对舱单信息"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="15"/>
+    <s v="收到报关行(黄寅文)校对稿，邮件发客户(周嘉敏)确认"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般半天内"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="16"/>
+    <s v="收到客户(周嘉敏)确认校对稿，通知报关行(黄寅文)"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般马上"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="17"/>
+    <s v="通知报关行(黄寅文)报关(需有开港)"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="18"/>
+    <s v="收到报关成功通知"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般下班前"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="19"/>
+    <s v="通知车队(沈丽)可进港"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="1"/>
+    <s v="盯箱子进港"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <s v="核对进港数据"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="3"/>
+    <s v="盯海放"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="4"/>
+    <s v="盯码放"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="5"/>
+    <s v="盯配载"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="1"/>
+    <s v="做费用"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="2"/>
+    <s v="发账单"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="1"/>
+    <s v="放单"/>
+    <x v="0"/>
+    <m/>
+    <s v="一般开船后两三天"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="列">
+  <location ref="A3:J13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="181" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="180" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="180" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0" defaultSubtotal="0">
+      <items count="9">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:预计" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:V11" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:V11" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="A1:V11"/>
   <sortState ref="A2:V9">
     <sortCondition ref="B8"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" name="日期" dataDxfId="46"/>
-    <tableColumn id="17" name="编号" dataDxfId="45"/>
-    <tableColumn id="16" name="客户" dataDxfId="44"/>
-    <tableColumn id="15" name="起运港" dataDxfId="43"/>
-    <tableColumn id="14" name="目的港" dataDxfId="42"/>
-    <tableColumn id="22" name="船公司" dataDxfId="41"/>
-    <tableColumn id="23" name="船名" dataDxfId="40"/>
-    <tableColumn id="24" name="航次" dataDxfId="39"/>
-    <tableColumn id="25" name="提单号" dataDxfId="38"/>
-    <tableColumn id="2" name="箱号" dataDxfId="37"/>
-    <tableColumn id="20" name="箱型量" dataDxfId="36"/>
-    <tableColumn id="4" name="靠离" dataDxfId="35"/>
-    <tableColumn id="5" name="危申报" dataDxfId="34"/>
-    <tableColumn id="6" name="换单" dataDxfId="33"/>
-    <tableColumn id="12" name="留箱" dataDxfId="32"/>
-    <tableColumn id="7" name="港区动态" dataDxfId="31"/>
-    <tableColumn id="8" name="确报理货" dataDxfId="30"/>
-    <tableColumn id="9" name="报关" dataDxfId="29"/>
-    <tableColumn id="10" name="车队" dataDxfId="28"/>
-    <tableColumn id="11" name="堆场" dataDxfId="27"/>
-    <tableColumn id="13" name="当前状态" dataDxfId="26"/>
-    <tableColumn id="3" name="NEXT" dataDxfId="25"/>
+    <tableColumn id="1" name="日期" dataDxfId="51"/>
+    <tableColumn id="17" name="编号" dataDxfId="50"/>
+    <tableColumn id="16" name="客户" dataDxfId="49"/>
+    <tableColumn id="15" name="起运港" dataDxfId="48"/>
+    <tableColumn id="14" name="目的港" dataDxfId="47"/>
+    <tableColumn id="22" name="船公司" dataDxfId="46"/>
+    <tableColumn id="23" name="船名" dataDxfId="45"/>
+    <tableColumn id="24" name="航次" dataDxfId="44"/>
+    <tableColumn id="25" name="提单号" dataDxfId="43"/>
+    <tableColumn id="2" name="箱号" dataDxfId="42"/>
+    <tableColumn id="20" name="箱型量" dataDxfId="41"/>
+    <tableColumn id="4" name="靠离" dataDxfId="40"/>
+    <tableColumn id="5" name="危申报" dataDxfId="39"/>
+    <tableColumn id="6" name="换单" dataDxfId="38"/>
+    <tableColumn id="12" name="留箱" dataDxfId="37"/>
+    <tableColumn id="7" name="港区动态" dataDxfId="36"/>
+    <tableColumn id="8" name="确报理货" dataDxfId="35"/>
+    <tableColumn id="9" name="报关" dataDxfId="34"/>
+    <tableColumn id="10" name="车队" dataDxfId="33"/>
+    <tableColumn id="11" name="堆场" dataDxfId="32"/>
+    <tableColumn id="13" name="当前状态" dataDxfId="31"/>
+    <tableColumn id="3" name="NEXT" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H46" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:H46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H62" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:H62"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="项目" dataDxfId="21"/>
-    <tableColumn id="2" name="ETD" dataDxfId="20"/>
-    <tableColumn id="8" name="主序" dataDxfId="19"/>
-    <tableColumn id="3" name="从序" dataDxfId="18"/>
-    <tableColumn id="4" name="内容" dataDxfId="17"/>
-    <tableColumn id="5" name="预计" dataDxfId="16"/>
-    <tableColumn id="6" name="实际" dataDxfId="15"/>
-    <tableColumn id="7" name="备注" dataDxfId="14"/>
+    <tableColumn id="1" name="项目" dataDxfId="27"/>
+    <tableColumn id="2" name="ETD" dataDxfId="26"/>
+    <tableColumn id="8" name="主序" dataDxfId="25"/>
+    <tableColumn id="3" name="从序" dataDxfId="24"/>
+    <tableColumn id="4" name="内容" dataDxfId="23"/>
+    <tableColumn id="5" name="预计" dataDxfId="22"/>
+    <tableColumn id="6" name="实际" dataDxfId="21"/>
+    <tableColumn id="7" name="备注" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:H136" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H136"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:H169" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:H169"/>
+  <sortState ref="A2:H169">
+    <sortCondition ref="B2:B169"/>
+    <sortCondition ref="A2:A169"/>
+    <sortCondition ref="C2:C169"/>
+    <sortCondition ref="D2:D169"/>
+  </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="项目" dataDxfId="7"/>
-    <tableColumn id="2" name="ETD" dataDxfId="6"/>
-    <tableColumn id="3" name="主序" dataDxfId="5"/>
-    <tableColumn id="4" name="从序" dataDxfId="4"/>
-    <tableColumn id="5" name="内容" dataDxfId="3"/>
-    <tableColumn id="6" name="预计" dataDxfId="1"/>
-    <tableColumn id="7" name="实际" dataDxfId="0"/>
-    <tableColumn id="8" name="备注" dataDxfId="2"/>
+    <tableColumn id="1" name="项目" dataDxfId="14"/>
+    <tableColumn id="2" name="ETD" dataDxfId="13"/>
+    <tableColumn id="3" name="主序" dataDxfId="12"/>
+    <tableColumn id="4" name="从序" dataDxfId="11"/>
+    <tableColumn id="5" name="内容" dataDxfId="10"/>
+    <tableColumn id="6" name="预计" dataDxfId="9"/>
+    <tableColumn id="7" name="实际" dataDxfId="8"/>
+    <tableColumn id="8" name="备注" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3321,7 +5401,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M2:U11">
-    <cfRule type="notContainsText" dxfId="48" priority="1" operator="notContains" text="OK">
+    <cfRule type="notContainsText" dxfId="2" priority="1" operator="notContains" text="OK">
       <formula>ISERROR(SEARCH("OK",M2))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3335,10 +5415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4213,10 +6293,306 @@
         <v>315</v>
       </c>
     </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30">
+        <v>1</v>
+      </c>
+      <c r="D47" s="30">
+        <v>1</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30">
+        <v>2</v>
+      </c>
+      <c r="D48" s="30">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30">
+        <v>3</v>
+      </c>
+      <c r="D49" s="30">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30">
+        <v>3</v>
+      </c>
+      <c r="D50" s="30">
+        <v>2</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30">
+        <v>3</v>
+      </c>
+      <c r="D51" s="30">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30">
+        <v>4</v>
+      </c>
+      <c r="D52" s="30">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30">
+        <v>4</v>
+      </c>
+      <c r="D53" s="30">
+        <v>3</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30">
+        <v>5</v>
+      </c>
+      <c r="D54" s="30">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30">
+        <v>5</v>
+      </c>
+      <c r="D55" s="30">
+        <v>2</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30">
+        <v>5</v>
+      </c>
+      <c r="D56" s="30">
+        <v>3</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30">
+        <v>6</v>
+      </c>
+      <c r="D57" s="30">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B58" s="29"/>
+      <c r="C58" s="30">
+        <v>7</v>
+      </c>
+      <c r="D58" s="30">
+        <v>1</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30">
+        <v>7</v>
+      </c>
+      <c r="D59" s="30">
+        <v>2</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30">
+        <v>7</v>
+      </c>
+      <c r="D60" s="30">
+        <v>3</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="30">
+        <v>8</v>
+      </c>
+      <c r="D61" s="30">
+        <v>1</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B62" s="29"/>
+      <c r="C62" s="30">
+        <v>8</v>
+      </c>
+      <c r="D62" s="30">
+        <v>2</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E46">
-    <cfRule type="beginsWith" dxfId="24" priority="2" operator="beginsWith" text="收到">
+  <conditionalFormatting sqref="E2:E62">
+    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="收到">
       <formula>LEFT(E2,LEN("收到"))="收到"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4230,20 +6606,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="J138" sqref="J138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -4272,7 +6649,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>155</v>
       </c>
@@ -4280,21 +6657,17 @@
         <v>43595</v>
       </c>
       <c r="C2" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="19">
-        <v>1</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>281</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>357</v>
       </c>
       <c r="F2" s="26"/>
-      <c r="G2" s="26">
-        <v>43581</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>190</v>
-      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
@@ -4304,20 +6677,20 @@
         <v>43595</v>
       </c>
       <c r="C3" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="19">
         <v>1</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26">
-        <v>43583</v>
+        <v>43581</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4331,16 +6704,18 @@
         <v>2</v>
       </c>
       <c r="D4" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26">
         <v>43583</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="21" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -4353,18 +6728,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26">
         <v>43583</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>205</v>
-      </c>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -4377,16 +6750,18 @@
         <v>2</v>
       </c>
       <c r="D6" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26">
         <v>43583</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
@@ -4399,10 +6774,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>285</v>
+        <v>179</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26">
@@ -4421,10 +6796,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26">
@@ -4443,10 +6818,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>165</v>
+        <v>286</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26">
@@ -4465,18 +6840,16 @@
         <v>2</v>
       </c>
       <c r="D10" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26">
-        <v>43584</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>194</v>
-      </c>
+        <v>43583</v>
+      </c>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
@@ -4489,16 +6862,18 @@
         <v>2</v>
       </c>
       <c r="D11" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26">
         <v>43584</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="21" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
@@ -4508,21 +6883,19 @@
         <v>43595</v>
       </c>
       <c r="C12" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26">
-        <v>43591</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>196</v>
-      </c>
+        <v>43584</v>
+      </c>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
@@ -4535,16 +6908,18 @@
         <v>3</v>
       </c>
       <c r="D13" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26">
         <v>43591</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="21" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
@@ -4557,10 +6932,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26">
@@ -4579,10 +6954,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26">
@@ -4601,10 +6976,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26">
@@ -4623,10 +6998,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26">
@@ -4645,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26">
@@ -4667,10 +7042,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="26">
@@ -4686,21 +7061,19 @@
         <v>43595</v>
       </c>
       <c r="C20" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="19">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="F20" s="26">
-        <v>43592.375</v>
-      </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="21" t="s">
-        <v>198</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26">
+        <v>43591</v>
+      </c>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
@@ -4713,16 +7086,18 @@
         <v>4</v>
       </c>
       <c r="D21" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c r="F21" s="26">
-        <v>43592.375</v>
+        <v>43592</v>
       </c>
       <c r="G21" s="26"/>
-      <c r="H21" s="21"/>
+      <c r="H21" s="21" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
@@ -4735,13 +7110,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="F22" s="26">
-        <v>43592.375</v>
+        <v>43592</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="21"/>
@@ -4757,13 +7132,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F23" s="26">
-        <v>43592.375</v>
+        <v>43592</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="21"/>
@@ -4779,18 +7154,16 @@
         <v>4</v>
       </c>
       <c r="D24" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F24" s="26">
-        <v>43592.375</v>
+        <v>43592</v>
       </c>
       <c r="G24" s="26"/>
-      <c r="H24" s="21" t="s">
-        <v>205</v>
-      </c>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
@@ -4803,16 +7176,18 @@
         <v>4</v>
       </c>
       <c r="D25" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F25" s="26">
-        <v>43592.375</v>
+        <v>43592</v>
       </c>
       <c r="G25" s="26"/>
-      <c r="H25" s="21"/>
+      <c r="H25" s="21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
@@ -4825,18 +7200,16 @@
         <v>4</v>
       </c>
       <c r="D26" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F26" s="26">
-        <v>43592.375</v>
+        <v>43592</v>
       </c>
       <c r="G26" s="26"/>
-      <c r="H26" s="21" t="s">
-        <v>205</v>
-      </c>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
@@ -4849,16 +7222,18 @@
         <v>4</v>
       </c>
       <c r="D27" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="F27" s="26">
-        <v>43592.375</v>
+        <v>43592</v>
       </c>
       <c r="G27" s="26"/>
-      <c r="H27" s="21"/>
+      <c r="H27" s="21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
@@ -4871,13 +7246,13 @@
         <v>4</v>
       </c>
       <c r="D28" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="F28" s="26">
-        <v>43592.375</v>
+        <v>43592</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="21"/>
@@ -4893,13 +7268,13 @@
         <v>4</v>
       </c>
       <c r="D29" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F29" s="26">
-        <v>43592.375</v>
+        <v>43592</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="21"/>
@@ -4915,13 +7290,13 @@
         <v>4</v>
       </c>
       <c r="D30" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F30" s="26">
-        <v>43592.375</v>
+        <v>43592</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="21"/>
@@ -4937,13 +7312,13 @@
         <v>4</v>
       </c>
       <c r="D31" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="F31" s="26">
-        <v>43592.375</v>
+        <v>43592</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="21"/>
@@ -4959,18 +7334,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F32" s="26">
-        <v>43592.458333333336</v>
+        <v>43592</v>
       </c>
       <c r="G32" s="26"/>
-      <c r="H32" s="21" t="s">
-        <v>238</v>
-      </c>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
@@ -4983,16 +7356,18 @@
         <v>4</v>
       </c>
       <c r="D33" s="19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="F33" s="26">
-        <v>43592.458333333336</v>
+        <v>43592</v>
       </c>
       <c r="G33" s="26"/>
-      <c r="H33" s="21"/>
+      <c r="H33" s="21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
@@ -5005,18 +7380,16 @@
         <v>4</v>
       </c>
       <c r="D34" s="19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F34" s="26">
-        <v>43592.583333333336</v>
+        <v>43592</v>
       </c>
       <c r="G34" s="26"/>
-      <c r="H34" s="21" t="s">
-        <v>194</v>
-      </c>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
@@ -5029,17 +7402,17 @@
         <v>4</v>
       </c>
       <c r="D35" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F35" s="26">
-        <v>43592.625</v>
+        <v>43592</v>
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="21" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -5053,16 +7426,18 @@
         <v>4</v>
       </c>
       <c r="D36" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F36" s="26">
-        <v>43592.625</v>
+        <v>43592</v>
       </c>
       <c r="G36" s="26"/>
-      <c r="H36" s="21"/>
+      <c r="H36" s="21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
@@ -5075,18 +7450,16 @@
         <v>4</v>
       </c>
       <c r="D37" s="19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F37" s="26">
-        <v>43592.708333333336</v>
+        <v>43592</v>
       </c>
       <c r="G37" s="26"/>
-      <c r="H37" s="21" t="s">
-        <v>246</v>
-      </c>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
@@ -5099,16 +7472,18 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F38" s="26">
-        <v>43592.708333333336</v>
+        <v>43592</v>
       </c>
       <c r="G38" s="26"/>
-      <c r="H38" s="21"/>
+      <c r="H38" s="21" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
@@ -5118,16 +7493,16 @@
         <v>43595</v>
       </c>
       <c r="C39" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="19">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F39" s="26">
-        <v>43593.375</v>
+        <v>43592</v>
       </c>
       <c r="G39" s="26"/>
       <c r="H39" s="21"/>
@@ -5143,13 +7518,13 @@
         <v>5</v>
       </c>
       <c r="D40" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="F40" s="26">
-        <v>43593.375</v>
+        <v>43593</v>
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="21"/>
@@ -5165,13 +7540,13 @@
         <v>5</v>
       </c>
       <c r="D41" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="F41" s="26">
-        <v>43593.375</v>
+        <v>43593</v>
       </c>
       <c r="G41" s="26"/>
       <c r="H41" s="21"/>
@@ -5187,13 +7562,13 @@
         <v>5</v>
       </c>
       <c r="D42" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="F42" s="26">
-        <v>43593.583333333336</v>
+        <v>43593</v>
       </c>
       <c r="G42" s="26"/>
       <c r="H42" s="21"/>
@@ -5209,13 +7584,13 @@
         <v>5</v>
       </c>
       <c r="D43" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="F43" s="26">
-        <v>43594.375</v>
+        <v>43593</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="21"/>
@@ -5228,16 +7603,16 @@
         <v>43595</v>
       </c>
       <c r="C44" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F44" s="26">
-        <v>43595.375</v>
+        <v>43594</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="21"/>
@@ -5253,13 +7628,13 @@
         <v>6</v>
       </c>
       <c r="D45" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F45" s="26">
-        <v>43595.375</v>
+        <v>43595</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="21"/>
@@ -5272,85 +7647,81 @@
         <v>43595</v>
       </c>
       <c r="C46" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="F46" s="26">
-        <v>43596.416666666664</v>
+        <v>43595</v>
       </c>
       <c r="G46" s="26"/>
-      <c r="H46" s="21" t="s">
-        <v>316</v>
-      </c>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B47" s="18">
-        <v>43600</v>
-      </c>
-      <c r="C47" s="20">
+        <v>43595</v>
+      </c>
+      <c r="C47" s="19">
+        <v>7</v>
+      </c>
+      <c r="D47" s="19">
         <v>1</v>
       </c>
-      <c r="D47" s="20">
-        <v>1</v>
-      </c>
       <c r="E47" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26">
-        <v>43581</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="F47" s="26">
+        <v>43596.416666666664</v>
+      </c>
+      <c r="G47" s="26"/>
       <c r="H47" s="21" t="s">
-        <v>190</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B48" s="18">
         <v>43600</v>
       </c>
-      <c r="C48" s="20">
-        <v>2</v>
-      </c>
-      <c r="D48" s="20">
+      <c r="C48" s="19">
         <v>1</v>
       </c>
+      <c r="D48" s="19">
+        <v>1</v>
+      </c>
       <c r="E48" s="20" t="s">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26">
-        <v>43591</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>192</v>
-      </c>
+        <v>43585</v>
+      </c>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B49" s="18">
         <v>43600</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="19">
         <v>2</v>
       </c>
-      <c r="D49" s="20">
-        <v>2</v>
+      <c r="D49" s="19">
+        <v>1</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26">
@@ -5360,299 +7731,313 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B50" s="18">
         <v>43600</v>
       </c>
-      <c r="C50" s="20">
-        <v>2</v>
-      </c>
-      <c r="D50" s="20">
+      <c r="C50" s="19">
         <v>3</v>
       </c>
+      <c r="D50" s="19">
+        <v>1</v>
+      </c>
       <c r="E50" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26">
-        <v>43591</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="F50" s="26">
+        <v>43594</v>
+      </c>
+      <c r="G50" s="26"/>
       <c r="H50" s="21" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B51" s="18">
         <v>43600</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="19">
+        <v>3</v>
+      </c>
+      <c r="D51" s="19">
         <v>2</v>
       </c>
-      <c r="D51" s="20">
-        <v>4</v>
-      </c>
       <c r="E51" s="20" t="s">
-        <v>178</v>
+        <v>324</v>
       </c>
       <c r="F51" s="26">
-        <v>43591.541666666664</v>
+        <v>43594</v>
       </c>
       <c r="G51" s="26"/>
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B52" s="18">
         <v>43600</v>
       </c>
-      <c r="C52" s="20">
-        <v>2</v>
-      </c>
-      <c r="D52" s="20">
-        <v>5</v>
+      <c r="C52" s="19">
+        <v>3</v>
+      </c>
+      <c r="D52" s="19">
+        <v>3</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>180</v>
+        <v>322</v>
       </c>
       <c r="F52" s="26">
-        <v>43591.541666666664</v>
+        <v>43594</v>
       </c>
       <c r="G52" s="26"/>
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B53" s="18">
         <v>43600</v>
       </c>
-      <c r="C53" s="20">
-        <v>2</v>
-      </c>
-      <c r="D53" s="20">
-        <v>6</v>
+      <c r="C53" s="19">
+        <v>4</v>
+      </c>
+      <c r="D53" s="19">
+        <v>1</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="F53" s="26">
-        <v>43591.541666666664</v>
+        <v>43594</v>
       </c>
       <c r="G53" s="26"/>
-      <c r="H53" s="21"/>
+      <c r="H53" s="21" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B54" s="18">
         <v>43600</v>
       </c>
-      <c r="C54" s="20">
-        <v>2</v>
-      </c>
-      <c r="D54" s="20">
-        <v>7</v>
+      <c r="C54" s="19">
+        <v>4</v>
+      </c>
+      <c r="D54" s="19">
+        <v>3</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>164</v>
+        <v>339</v>
       </c>
       <c r="F54" s="26">
-        <v>43591.541666666664</v>
+        <v>43594</v>
       </c>
       <c r="G54" s="26"/>
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B55" s="18">
         <v>43600</v>
       </c>
-      <c r="C55" s="20">
-        <v>2</v>
-      </c>
-      <c r="D55" s="20">
-        <v>8</v>
+      <c r="C55" s="19">
+        <v>5</v>
+      </c>
+      <c r="D55" s="19">
+        <v>1</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>168</v>
+        <v>351</v>
       </c>
       <c r="F55" s="26">
-        <v>43591.541666666664</v>
+        <v>43597</v>
       </c>
       <c r="G55" s="26"/>
       <c r="H55" s="21" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B56" s="18">
         <v>43600</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="19">
+        <v>5</v>
+      </c>
+      <c r="D56" s="19">
         <v>2</v>
       </c>
-      <c r="D56" s="20">
-        <v>9</v>
-      </c>
       <c r="E56" s="20" t="s">
-        <v>226</v>
+        <v>341</v>
       </c>
       <c r="F56" s="26">
-        <v>43591.541666666664</v>
+        <v>43597</v>
       </c>
       <c r="G56" s="26"/>
       <c r="H56" s="21"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B57" s="18">
         <v>43600</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="19">
+        <v>5</v>
+      </c>
+      <c r="D57" s="19">
         <v>3</v>
       </c>
-      <c r="D57" s="20">
-        <v>1</v>
-      </c>
       <c r="E57" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F57" s="26"/>
+        <v>330</v>
+      </c>
+      <c r="F57" s="26">
+        <v>43598</v>
+      </c>
       <c r="G57" s="26"/>
-      <c r="H57" s="21" t="s">
-        <v>196</v>
-      </c>
+      <c r="H57" s="21"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>155</v>
+        <v>349</v>
       </c>
       <c r="B58" s="18">
         <v>43600</v>
       </c>
-      <c r="C58" s="20">
-        <v>3</v>
-      </c>
-      <c r="D58" s="20">
-        <v>2</v>
+      <c r="C58" s="19">
+        <v>6</v>
+      </c>
+      <c r="D58" s="19">
+        <v>1</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="F58" s="26"/>
+        <v>334</v>
+      </c>
+      <c r="F58" s="26">
+        <v>43598</v>
+      </c>
       <c r="G58" s="26"/>
-      <c r="H58" s="21"/>
+      <c r="H58" s="21" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B59" s="18">
         <v>43600</v>
       </c>
-      <c r="C59" s="20">
-        <v>3</v>
-      </c>
-      <c r="D59" s="20">
-        <v>3</v>
+      <c r="C59" s="19">
+        <v>7</v>
+      </c>
+      <c r="D59" s="19">
+        <v>1</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="F59" s="26"/>
+        <v>260</v>
+      </c>
+      <c r="F59" s="26">
+        <v>43598</v>
+      </c>
       <c r="G59" s="26"/>
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B60" s="18">
         <v>43600</v>
       </c>
-      <c r="C60" s="20">
-        <v>3</v>
-      </c>
-      <c r="D60" s="20">
-        <v>4</v>
+      <c r="C60" s="19">
+        <v>7</v>
+      </c>
+      <c r="D60" s="19">
+        <v>2</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="F60" s="26"/>
+        <v>262</v>
+      </c>
+      <c r="F60" s="26">
+        <v>43598</v>
+      </c>
       <c r="G60" s="26"/>
       <c r="H60" s="21"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B61" s="18">
         <v>43600</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="19">
+        <v>7</v>
+      </c>
+      <c r="D61" s="19">
         <v>3</v>
       </c>
-      <c r="D61" s="20">
-        <v>5</v>
-      </c>
       <c r="E61" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F61" s="26"/>
+        <v>264</v>
+      </c>
+      <c r="F61" s="26">
+        <v>43598</v>
+      </c>
       <c r="G61" s="26"/>
       <c r="H61" s="21"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B62" s="18">
         <v>43600</v>
       </c>
-      <c r="C62" s="20">
-        <v>3</v>
-      </c>
-      <c r="D62" s="20">
-        <v>6</v>
+      <c r="C62" s="19">
+        <v>8</v>
+      </c>
+      <c r="D62" s="19">
+        <v>1</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="F62" s="26"/>
+        <v>266</v>
+      </c>
+      <c r="F62" s="26">
+        <v>43600</v>
+      </c>
       <c r="G62" s="26"/>
       <c r="H62" s="21"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B63" s="18">
         <v>43600</v>
       </c>
-      <c r="C63" s="20">
-        <v>3</v>
-      </c>
-      <c r="D63" s="20">
-        <v>7</v>
+      <c r="C63" s="19">
+        <v>8</v>
+      </c>
+      <c r="D63" s="19">
+        <v>2</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -5665,18 +8050,22 @@
       <c r="B64" s="18">
         <v>43600</v>
       </c>
-      <c r="C64" s="20">
-        <v>3</v>
-      </c>
-      <c r="D64" s="20">
-        <v>8</v>
+      <c r="C64" s="19">
+        <v>1</v>
+      </c>
+      <c r="D64" s="19">
+        <v>1</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="21"/>
+      <c r="G64" s="26">
+        <v>43581</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
@@ -5685,19 +8074,21 @@
       <c r="B65" s="18">
         <v>43600</v>
       </c>
-      <c r="C65" s="20">
-        <v>4</v>
-      </c>
-      <c r="D65" s="20">
+      <c r="C65" s="19">
+        <v>2</v>
+      </c>
+      <c r="D65" s="19">
         <v>1</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
+      <c r="G65" s="26">
+        <v>43591</v>
+      </c>
       <c r="H65" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -5707,17 +8098,19 @@
       <c r="B66" s="18">
         <v>43600</v>
       </c>
-      <c r="C66" s="20">
-        <v>4</v>
-      </c>
-      <c r="D66" s="20">
+      <c r="C66" s="19">
         <v>2</v>
       </c>
+      <c r="D66" s="19">
+        <v>2</v>
+      </c>
       <c r="E66" s="20" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
+      <c r="G66" s="26">
+        <v>43591</v>
+      </c>
       <c r="H66" s="21"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -5727,18 +8120,22 @@
       <c r="B67" s="18">
         <v>43600</v>
       </c>
-      <c r="C67" s="20">
-        <v>4</v>
-      </c>
-      <c r="D67" s="20">
+      <c r="C67" s="19">
+        <v>2</v>
+      </c>
+      <c r="D67" s="19">
         <v>3</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="21"/>
+      <c r="G67" s="26">
+        <v>43591</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
@@ -5747,17 +8144,19 @@
       <c r="B68" s="18">
         <v>43600</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="19">
+        <v>2</v>
+      </c>
+      <c r="D68" s="19">
         <v>4</v>
       </c>
-      <c r="D68" s="20">
-        <v>4</v>
-      </c>
       <c r="E68" s="20" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
+      <c r="G68" s="26">
+        <v>43591</v>
+      </c>
       <c r="H68" s="21"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -5767,20 +8166,20 @@
       <c r="B69" s="18">
         <v>43600</v>
       </c>
-      <c r="C69" s="20">
-        <v>4</v>
-      </c>
-      <c r="D69" s="20">
+      <c r="C69" s="19">
+        <v>2</v>
+      </c>
+      <c r="D69" s="19">
         <v>5</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="21" t="s">
-        <v>205</v>
-      </c>
+      <c r="G69" s="26">
+        <v>43591</v>
+      </c>
+      <c r="H69" s="21"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
@@ -5789,17 +8188,19 @@
       <c r="B70" s="18">
         <v>43600</v>
       </c>
-      <c r="C70" s="20">
-        <v>4</v>
-      </c>
-      <c r="D70" s="20">
+      <c r="C70" s="19">
+        <v>2</v>
+      </c>
+      <c r="D70" s="19">
         <v>6</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
+      <c r="G70" s="26">
+        <v>43591</v>
+      </c>
       <c r="H70" s="21"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -5809,20 +8210,20 @@
       <c r="B71" s="18">
         <v>43600</v>
       </c>
-      <c r="C71" s="20">
-        <v>4</v>
-      </c>
-      <c r="D71" s="20">
+      <c r="C71" s="19">
+        <v>2</v>
+      </c>
+      <c r="D71" s="19">
         <v>7</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="21" t="s">
-        <v>205</v>
-      </c>
+      <c r="G71" s="26">
+        <v>43592</v>
+      </c>
+      <c r="H71" s="21"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
@@ -5831,18 +8232,22 @@
       <c r="B72" s="18">
         <v>43600</v>
       </c>
-      <c r="C72" s="20">
-        <v>4</v>
-      </c>
-      <c r="D72" s="20">
+      <c r="C72" s="19">
+        <v>2</v>
+      </c>
+      <c r="D72" s="19">
         <v>8</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="21"/>
+      <c r="G72" s="26">
+        <v>43592</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
@@ -5851,17 +8256,19 @@
       <c r="B73" s="18">
         <v>43600</v>
       </c>
-      <c r="C73" s="20">
-        <v>4</v>
-      </c>
-      <c r="D73" s="20">
+      <c r="C73" s="19">
+        <v>2</v>
+      </c>
+      <c r="D73" s="19">
         <v>9</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
+      <c r="G73" s="26">
+        <v>43592</v>
+      </c>
       <c r="H73" s="21"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -5871,18 +8278,20 @@
       <c r="B74" s="18">
         <v>43600</v>
       </c>
-      <c r="C74" s="20">
-        <v>4</v>
-      </c>
-      <c r="D74" s="20">
-        <v>10</v>
+      <c r="C74" s="19">
+        <v>3</v>
+      </c>
+      <c r="D74" s="19">
+        <v>1</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
-      <c r="H74" s="21"/>
+      <c r="H74" s="21" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
@@ -5891,14 +8300,14 @@
       <c r="B75" s="18">
         <v>43600</v>
       </c>
-      <c r="C75" s="20">
-        <v>4</v>
-      </c>
-      <c r="D75" s="20">
-        <v>11</v>
+      <c r="C75" s="19">
+        <v>3</v>
+      </c>
+      <c r="D75" s="19">
+        <v>2</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="F75" s="26"/>
       <c r="G75" s="26"/>
@@ -5911,14 +8320,14 @@
       <c r="B76" s="18">
         <v>43600</v>
       </c>
-      <c r="C76" s="20">
-        <v>4</v>
-      </c>
-      <c r="D76" s="20">
-        <v>12</v>
+      <c r="C76" s="19">
+        <v>3</v>
+      </c>
+      <c r="D76" s="19">
+        <v>3</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="F76" s="26"/>
       <c r="G76" s="26"/>
@@ -5931,20 +8340,18 @@
       <c r="B77" s="18">
         <v>43600</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="19">
+        <v>3</v>
+      </c>
+      <c r="D77" s="19">
         <v>4</v>
       </c>
-      <c r="D77" s="20">
-        <v>13</v>
-      </c>
       <c r="E77" s="20" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="F77" s="26"/>
       <c r="G77" s="26"/>
-      <c r="H77" s="21" t="s">
-        <v>238</v>
-      </c>
+      <c r="H77" s="21"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
@@ -5953,14 +8360,14 @@
       <c r="B78" s="18">
         <v>43600</v>
       </c>
-      <c r="C78" s="20">
-        <v>4</v>
-      </c>
-      <c r="D78" s="20">
-        <v>14</v>
+      <c r="C78" s="19">
+        <v>3</v>
+      </c>
+      <c r="D78" s="19">
+        <v>5</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="F78" s="26"/>
       <c r="G78" s="26"/>
@@ -5973,20 +8380,18 @@
       <c r="B79" s="18">
         <v>43600</v>
       </c>
-      <c r="C79" s="20">
-        <v>4</v>
-      </c>
-      <c r="D79" s="20">
-        <v>15</v>
+      <c r="C79" s="19">
+        <v>3</v>
+      </c>
+      <c r="D79" s="19">
+        <v>6</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
-      <c r="H79" s="21" t="s">
-        <v>194</v>
-      </c>
+      <c r="H79" s="21"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
@@ -5995,20 +8400,18 @@
       <c r="B80" s="18">
         <v>43600</v>
       </c>
-      <c r="C80" s="20">
-        <v>4</v>
-      </c>
-      <c r="D80" s="20">
-        <v>16</v>
+      <c r="C80" s="19">
+        <v>3</v>
+      </c>
+      <c r="D80" s="19">
+        <v>7</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
-      <c r="H80" s="21" t="s">
-        <v>205</v>
-      </c>
+      <c r="H80" s="21"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
@@ -6017,14 +8420,14 @@
       <c r="B81" s="18">
         <v>43600</v>
       </c>
-      <c r="C81" s="20">
-        <v>4</v>
-      </c>
-      <c r="D81" s="20">
-        <v>17</v>
+      <c r="C81" s="19">
+        <v>3</v>
+      </c>
+      <c r="D81" s="19">
+        <v>8</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -6037,19 +8440,19 @@
       <c r="B82" s="18">
         <v>43600</v>
       </c>
-      <c r="C82" s="20">
+      <c r="C82" s="19">
         <v>4</v>
       </c>
-      <c r="D82" s="20">
-        <v>18</v>
+      <c r="D82" s="19">
+        <v>1</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
       <c r="H82" s="21" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -6059,14 +8462,14 @@
       <c r="B83" s="18">
         <v>43600</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="19">
         <v>4</v>
       </c>
-      <c r="D83" s="20">
-        <v>19</v>
+      <c r="D83" s="19">
+        <v>2</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="F83" s="26"/>
       <c r="G83" s="26"/>
@@ -6079,14 +8482,14 @@
       <c r="B84" s="18">
         <v>43600</v>
       </c>
-      <c r="C84" s="20">
-        <v>5</v>
-      </c>
-      <c r="D84" s="20">
-        <v>1</v>
+      <c r="C84" s="19">
+        <v>4</v>
+      </c>
+      <c r="D84" s="19">
+        <v>3</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="F84" s="26"/>
       <c r="G84" s="26"/>
@@ -6099,14 +8502,14 @@
       <c r="B85" s="18">
         <v>43600</v>
       </c>
-      <c r="C85" s="20">
-        <v>5</v>
-      </c>
-      <c r="D85" s="20">
-        <v>2</v>
+      <c r="C85" s="19">
+        <v>4</v>
+      </c>
+      <c r="D85" s="19">
+        <v>4</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="F85" s="26"/>
       <c r="G85" s="26"/>
@@ -6119,18 +8522,20 @@
       <c r="B86" s="18">
         <v>43600</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C86" s="19">
+        <v>4</v>
+      </c>
+      <c r="D86" s="19">
         <v>5</v>
       </c>
-      <c r="D86" s="20">
-        <v>3</v>
-      </c>
       <c r="E86" s="20" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="F86" s="26"/>
       <c r="G86" s="26"/>
-      <c r="H86" s="21"/>
+      <c r="H86" s="21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
@@ -6139,14 +8544,14 @@
       <c r="B87" s="18">
         <v>43600</v>
       </c>
-      <c r="C87" s="20">
-        <v>5</v>
-      </c>
-      <c r="D87" s="20">
+      <c r="C87" s="19">
         <v>4</v>
       </c>
+      <c r="D87" s="19">
+        <v>6</v>
+      </c>
       <c r="E87" s="20" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -6159,18 +8564,20 @@
       <c r="B88" s="18">
         <v>43600</v>
       </c>
-      <c r="C88" s="20">
-        <v>5</v>
-      </c>
-      <c r="D88" s="20">
-        <v>5</v>
+      <c r="C88" s="19">
+        <v>4</v>
+      </c>
+      <c r="D88" s="19">
+        <v>7</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="F88" s="26"/>
       <c r="G88" s="26"/>
-      <c r="H88" s="21"/>
+      <c r="H88" s="21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
@@ -6179,14 +8586,14 @@
       <c r="B89" s="18">
         <v>43600</v>
       </c>
-      <c r="C89" s="20">
-        <v>6</v>
-      </c>
-      <c r="D89" s="20">
-        <v>1</v>
+      <c r="C89" s="19">
+        <v>4</v>
+      </c>
+      <c r="D89" s="19">
+        <v>8</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F89" s="26"/>
       <c r="G89" s="26"/>
@@ -6199,14 +8606,14 @@
       <c r="B90" s="18">
         <v>43600</v>
       </c>
-      <c r="C90" s="20">
-        <v>6</v>
-      </c>
-      <c r="D90" s="20">
-        <v>2</v>
+      <c r="C90" s="19">
+        <v>4</v>
+      </c>
+      <c r="D90" s="19">
+        <v>9</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -6219,178 +8626,162 @@
       <c r="B91" s="18">
         <v>43600</v>
       </c>
-      <c r="C91" s="20">
-        <v>7</v>
-      </c>
-      <c r="D91" s="20">
-        <v>1</v>
+      <c r="C91" s="19">
+        <v>4</v>
+      </c>
+      <c r="D91" s="19">
+        <v>10</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
-      <c r="H91" s="21" t="s">
-        <v>314</v>
-      </c>
+      <c r="H91" s="21"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B92" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C92" s="20">
-        <v>1</v>
-      </c>
-      <c r="D92" s="20">
-        <v>1</v>
+        <v>43600</v>
+      </c>
+      <c r="C92" s="19">
+        <v>4</v>
+      </c>
+      <c r="D92" s="19">
+        <v>11</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="F92" s="26"/>
-      <c r="G92" s="26">
-        <v>43581</v>
-      </c>
-      <c r="H92" s="21" t="s">
-        <v>190</v>
-      </c>
+      <c r="G92" s="26"/>
+      <c r="H92" s="21"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B93" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C93" s="20">
-        <v>2</v>
-      </c>
-      <c r="D93" s="20">
-        <v>1</v>
+        <v>43600</v>
+      </c>
+      <c r="C93" s="19">
+        <v>4</v>
+      </c>
+      <c r="D93" s="19">
+        <v>12</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="F93" s="26"/>
-      <c r="G93" s="26">
-        <v>43591</v>
-      </c>
-      <c r="H93" s="21" t="s">
-        <v>192</v>
-      </c>
+      <c r="G93" s="26"/>
+      <c r="H93" s="21"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B94" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C94" s="20">
-        <v>2</v>
-      </c>
-      <c r="D94" s="20">
-        <v>2</v>
+        <v>43600</v>
+      </c>
+      <c r="C94" s="19">
+        <v>4</v>
+      </c>
+      <c r="D94" s="19">
+        <v>13</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="F94" s="26"/>
-      <c r="G94" s="26">
-        <v>43591</v>
-      </c>
-      <c r="H94" s="21"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B95" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C95" s="20">
-        <v>2</v>
-      </c>
-      <c r="D95" s="20">
-        <v>3</v>
+        <v>43600</v>
+      </c>
+      <c r="C95" s="19">
+        <v>4</v>
+      </c>
+      <c r="D95" s="19">
+        <v>14</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F95" s="26"/>
-      <c r="G95" s="26">
-        <v>43591</v>
-      </c>
-      <c r="H95" s="21" t="s">
-        <v>205</v>
-      </c>
+      <c r="G95" s="26"/>
+      <c r="H95" s="21"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B96" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C96" s="20">
-        <v>2</v>
-      </c>
-      <c r="D96" s="20">
+        <v>43600</v>
+      </c>
+      <c r="C96" s="19">
         <v>4</v>
       </c>
+      <c r="D96" s="19">
+        <v>15</v>
+      </c>
       <c r="E96" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="F96" s="26">
-        <v>43591.541666666664</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="F96" s="26"/>
       <c r="G96" s="26"/>
-      <c r="H96" s="21"/>
+      <c r="H96" s="21" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B97" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C97" s="20">
-        <v>2</v>
-      </c>
-      <c r="D97" s="20">
-        <v>5</v>
+        <v>43600</v>
+      </c>
+      <c r="C97" s="19">
+        <v>4</v>
+      </c>
+      <c r="D97" s="19">
+        <v>16</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F97" s="26">
-        <v>43591.541666666664</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F97" s="26"/>
       <c r="G97" s="26"/>
-      <c r="H97" s="21"/>
+      <c r="H97" s="21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B98" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C98" s="20">
-        <v>2</v>
-      </c>
-      <c r="D98" s="20">
-        <v>6</v>
+        <v>43600</v>
+      </c>
+      <c r="C98" s="19">
+        <v>4</v>
+      </c>
+      <c r="D98" s="19">
+        <v>17</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F98" s="26">
-        <v>43591.541666666664</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="F98" s="26"/>
       <c r="G98" s="26"/>
       <c r="H98" s="21"/>
     </row>
@@ -6399,66 +8790,60 @@
         <v>155</v>
       </c>
       <c r="B99" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C99" s="20">
-        <v>2</v>
-      </c>
-      <c r="D99" s="20">
-        <v>7</v>
+        <v>43600</v>
+      </c>
+      <c r="C99" s="19">
+        <v>4</v>
+      </c>
+      <c r="D99" s="19">
+        <v>18</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="F99" s="26">
-        <v>43591.541666666664</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="F99" s="26"/>
       <c r="G99" s="26"/>
-      <c r="H99" s="21"/>
+      <c r="H99" s="21" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B100" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C100" s="20">
-        <v>2</v>
-      </c>
-      <c r="D100" s="20">
-        <v>8</v>
+        <v>43600</v>
+      </c>
+      <c r="C100" s="19">
+        <v>4</v>
+      </c>
+      <c r="D100" s="19">
+        <v>19</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="F100" s="26">
-        <v>43591.541666666664</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="F100" s="26"/>
       <c r="G100" s="26"/>
-      <c r="H100" s="21" t="s">
-        <v>194</v>
-      </c>
+      <c r="H100" s="21"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B101" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C101" s="20">
-        <v>2</v>
-      </c>
-      <c r="D101" s="20">
-        <v>9</v>
+        <v>43600</v>
+      </c>
+      <c r="C101" s="19">
+        <v>5</v>
+      </c>
+      <c r="D101" s="19">
+        <v>1</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="F101" s="26">
-        <v>43591.541666666664</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="F101" s="26"/>
       <c r="G101" s="26"/>
       <c r="H101" s="21"/>
     </row>
@@ -6467,38 +8852,36 @@
         <v>155</v>
       </c>
       <c r="B102" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C102" s="20">
-        <v>3</v>
-      </c>
-      <c r="D102" s="20">
-        <v>1</v>
+        <v>43600</v>
+      </c>
+      <c r="C102" s="19">
+        <v>5</v>
+      </c>
+      <c r="D102" s="19">
+        <v>2</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="F102" s="26"/>
       <c r="G102" s="26"/>
-      <c r="H102" s="21" t="s">
-        <v>196</v>
-      </c>
+      <c r="H102" s="21"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B103" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C103" s="20">
+        <v>43600</v>
+      </c>
+      <c r="C103" s="19">
+        <v>5</v>
+      </c>
+      <c r="D103" s="19">
         <v>3</v>
       </c>
-      <c r="D103" s="20">
-        <v>2</v>
-      </c>
       <c r="E103" s="20" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="F103" s="26"/>
       <c r="G103" s="26"/>
@@ -6509,16 +8892,16 @@
         <v>155</v>
       </c>
       <c r="B104" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C104" s="20">
-        <v>3</v>
-      </c>
-      <c r="D104" s="20">
-        <v>3</v>
+        <v>43600</v>
+      </c>
+      <c r="C104" s="19">
+        <v>5</v>
+      </c>
+      <c r="D104" s="19">
+        <v>4</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="F104" s="26"/>
       <c r="G104" s="26"/>
@@ -6529,16 +8912,16 @@
         <v>155</v>
       </c>
       <c r="B105" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C105" s="20">
-        <v>3</v>
-      </c>
-      <c r="D105" s="20">
-        <v>4</v>
+        <v>43600</v>
+      </c>
+      <c r="C105" s="19">
+        <v>5</v>
+      </c>
+      <c r="D105" s="19">
+        <v>5</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -6549,16 +8932,16 @@
         <v>155</v>
       </c>
       <c r="B106" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C106" s="20">
-        <v>3</v>
-      </c>
-      <c r="D106" s="20">
-        <v>5</v>
+        <v>43600</v>
+      </c>
+      <c r="C106" s="19">
+        <v>6</v>
+      </c>
+      <c r="D106" s="19">
+        <v>1</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -6569,16 +8952,16 @@
         <v>155</v>
       </c>
       <c r="B107" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C107" s="20">
-        <v>3</v>
-      </c>
-      <c r="D107" s="20">
+        <v>43600</v>
+      </c>
+      <c r="C107" s="19">
         <v>6</v>
       </c>
+      <c r="D107" s="19">
+        <v>2</v>
+      </c>
       <c r="E107" s="20" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="F107" s="26"/>
       <c r="G107" s="26"/>
@@ -6589,262 +8972,288 @@
         <v>155</v>
       </c>
       <c r="B108" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C108" s="20">
-        <v>3</v>
-      </c>
-      <c r="D108" s="20">
+        <v>43600</v>
+      </c>
+      <c r="C108" s="19">
         <v>7</v>
       </c>
+      <c r="D108" s="19">
+        <v>1</v>
+      </c>
       <c r="E108" s="20" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="F108" s="26"/>
       <c r="G108" s="26"/>
-      <c r="H108" s="21"/>
+      <c r="H108" s="21" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B109" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C109" s="20">
-        <v>3</v>
-      </c>
-      <c r="D109" s="20">
-        <v>8</v>
+        <v>43600</v>
+      </c>
+      <c r="C109" s="19">
+        <v>1</v>
+      </c>
+      <c r="D109" s="19">
+        <v>1</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
+      <c r="G109" s="26">
+        <v>43585</v>
+      </c>
       <c r="H109" s="21"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B110" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C110" s="20">
-        <v>4</v>
-      </c>
-      <c r="D110" s="20">
+        <v>43600</v>
+      </c>
+      <c r="C110" s="19">
+        <v>2</v>
+      </c>
+      <c r="D110" s="19">
         <v>1</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="F110" s="26"/>
+        <v>335</v>
+      </c>
+      <c r="F110" s="26">
+        <v>43592</v>
+      </c>
       <c r="G110" s="26"/>
       <c r="H110" s="21" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B111" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C111" s="20">
-        <v>4</v>
-      </c>
-      <c r="D111" s="20">
-        <v>2</v>
+        <v>43600</v>
+      </c>
+      <c r="C111" s="19">
+        <v>3</v>
+      </c>
+      <c r="D111" s="19">
+        <v>1</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F111" s="26"/>
+        <v>337</v>
+      </c>
+      <c r="F111" s="26">
+        <v>43594</v>
+      </c>
       <c r="G111" s="26"/>
-      <c r="H111" s="21"/>
+      <c r="H111" s="21" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B112" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C112" s="20">
-        <v>4</v>
-      </c>
-      <c r="D112" s="20">
+        <v>43600</v>
+      </c>
+      <c r="C112" s="19">
         <v>3</v>
       </c>
+      <c r="D112" s="19">
+        <v>2</v>
+      </c>
       <c r="E112" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="F112" s="26"/>
+        <v>324</v>
+      </c>
+      <c r="F112" s="26">
+        <v>43594</v>
+      </c>
       <c r="G112" s="26"/>
       <c r="H112" s="21"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B113" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C113" s="20">
-        <v>4</v>
-      </c>
-      <c r="D113" s="20">
-        <v>4</v>
+        <v>43600</v>
+      </c>
+      <c r="C113" s="19">
+        <v>3</v>
+      </c>
+      <c r="D113" s="19">
+        <v>3</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="F113" s="26"/>
+        <v>322</v>
+      </c>
+      <c r="F113" s="26">
+        <v>43594</v>
+      </c>
       <c r="G113" s="26"/>
       <c r="H113" s="21"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B114" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C114" s="20">
+        <v>43600</v>
+      </c>
+      <c r="C114" s="19">
         <v>4</v>
       </c>
-      <c r="D114" s="20">
-        <v>5</v>
+      <c r="D114" s="19">
+        <v>1</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="F114" s="26"/>
+        <v>326</v>
+      </c>
+      <c r="F114" s="26">
+        <v>43594</v>
+      </c>
       <c r="G114" s="26"/>
       <c r="H114" s="21" t="s">
-        <v>205</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B115" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C115" s="20">
+        <v>43600</v>
+      </c>
+      <c r="C115" s="19">
         <v>4</v>
       </c>
-      <c r="D115" s="20">
-        <v>6</v>
+      <c r="D115" s="19">
+        <v>3</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="F115" s="26"/>
+        <v>339</v>
+      </c>
+      <c r="F115" s="26">
+        <v>43594</v>
+      </c>
       <c r="G115" s="26"/>
       <c r="H115" s="21"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B116" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C116" s="20">
-        <v>4</v>
-      </c>
-      <c r="D116" s="20">
-        <v>7</v>
+        <v>43600</v>
+      </c>
+      <c r="C116" s="19">
+        <v>5</v>
+      </c>
+      <c r="D116" s="19">
+        <v>1</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="F116" s="26"/>
+        <v>351</v>
+      </c>
+      <c r="F116" s="26">
+        <v>43595</v>
+      </c>
       <c r="G116" s="26"/>
       <c r="H116" s="21" t="s">
-        <v>205</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B117" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C117" s="20">
-        <v>4</v>
-      </c>
-      <c r="D117" s="20">
-        <v>8</v>
+        <v>43600</v>
+      </c>
+      <c r="C117" s="19">
+        <v>5</v>
+      </c>
+      <c r="D117" s="19">
+        <v>2</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="F117" s="26"/>
+        <v>341</v>
+      </c>
+      <c r="F117" s="26">
+        <v>43595</v>
+      </c>
       <c r="G117" s="26"/>
       <c r="H117" s="21"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B118" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C118" s="20">
-        <v>4</v>
-      </c>
-      <c r="D118" s="20">
-        <v>9</v>
+        <v>43600</v>
+      </c>
+      <c r="C118" s="19">
+        <v>5</v>
+      </c>
+      <c r="D118" s="19">
+        <v>3</v>
       </c>
       <c r="E118" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F118" s="26"/>
+        <v>330</v>
+      </c>
+      <c r="F118" s="26">
+        <v>43595</v>
+      </c>
       <c r="G118" s="26"/>
       <c r="H118" s="21"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B119" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C119" s="20">
-        <v>4</v>
-      </c>
-      <c r="D119" s="20">
-        <v>10</v>
+        <v>43600</v>
+      </c>
+      <c r="C119" s="19">
+        <v>6</v>
+      </c>
+      <c r="D119" s="19">
+        <v>1</v>
       </c>
       <c r="E119" s="20" t="s">
-        <v>234</v>
+        <v>334</v>
       </c>
       <c r="F119" s="26"/>
       <c r="G119" s="26"/>
-      <c r="H119" s="21"/>
+      <c r="H119" s="21" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B120" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C120" s="20">
-        <v>4</v>
-      </c>
-      <c r="D120" s="20">
-        <v>11</v>
+        <v>43600</v>
+      </c>
+      <c r="C120" s="19">
+        <v>7</v>
+      </c>
+      <c r="D120" s="19">
+        <v>1</v>
       </c>
       <c r="E120" s="20" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F120" s="26"/>
       <c r="G120" s="26"/>
@@ -6852,19 +9261,19 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B121" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C121" s="20">
-        <v>4</v>
-      </c>
-      <c r="D121" s="20">
-        <v>12</v>
+        <v>43600</v>
+      </c>
+      <c r="C121" s="19">
+        <v>7</v>
+      </c>
+      <c r="D121" s="19">
+        <v>2</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -6872,41 +9281,39 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B122" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C122" s="20">
-        <v>4</v>
-      </c>
-      <c r="D122" s="20">
-        <v>13</v>
+        <v>43600</v>
+      </c>
+      <c r="C122" s="19">
+        <v>7</v>
+      </c>
+      <c r="D122" s="19">
+        <v>3</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="F122" s="26"/>
       <c r="G122" s="26"/>
-      <c r="H122" s="21" t="s">
-        <v>238</v>
-      </c>
+      <c r="H122" s="21"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B123" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C123" s="20">
-        <v>4</v>
-      </c>
-      <c r="D123" s="20">
-        <v>14</v>
+        <v>43600</v>
+      </c>
+      <c r="C123" s="19">
+        <v>8</v>
+      </c>
+      <c r="D123" s="19">
+        <v>1</v>
       </c>
       <c r="E123" s="20" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="F123" s="26"/>
       <c r="G123" s="26"/>
@@ -6914,25 +9321,23 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="B124" s="18">
-        <v>43602</v>
-      </c>
-      <c r="C124" s="20">
-        <v>4</v>
-      </c>
-      <c r="D124" s="20">
-        <v>15</v>
+        <v>43600</v>
+      </c>
+      <c r="C124" s="19">
+        <v>8</v>
+      </c>
+      <c r="D124" s="19">
+        <v>2</v>
       </c>
       <c r="E124" s="20" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="F124" s="26"/>
       <c r="G124" s="26"/>
-      <c r="H124" s="21" t="s">
-        <v>194</v>
-      </c>
+      <c r="H124" s="21"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
@@ -6941,19 +9346,21 @@
       <c r="B125" s="18">
         <v>43602</v>
       </c>
-      <c r="C125" s="20">
-        <v>4</v>
-      </c>
-      <c r="D125" s="20">
-        <v>16</v>
+      <c r="C125" s="19">
+        <v>1</v>
+      </c>
+      <c r="D125" s="19">
+        <v>1</v>
       </c>
       <c r="E125" s="20" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="F125" s="26"/>
-      <c r="G125" s="26"/>
+      <c r="G125" s="26">
+        <v>43581</v>
+      </c>
       <c r="H125" s="21" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -6963,18 +9370,22 @@
       <c r="B126" s="18">
         <v>43602</v>
       </c>
-      <c r="C126" s="20">
-        <v>4</v>
-      </c>
-      <c r="D126" s="20">
-        <v>17</v>
+      <c r="C126" s="19">
+        <v>2</v>
+      </c>
+      <c r="D126" s="19">
+        <v>1</v>
       </c>
       <c r="E126" s="20" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F126" s="26"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="21"/>
+      <c r="G126" s="26">
+        <v>43591</v>
+      </c>
+      <c r="H126" s="21" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
@@ -6983,20 +9394,20 @@
       <c r="B127" s="18">
         <v>43602</v>
       </c>
-      <c r="C127" s="20">
-        <v>4</v>
-      </c>
-      <c r="D127" s="20">
-        <v>18</v>
+      <c r="C127" s="19">
+        <v>2</v>
+      </c>
+      <c r="D127" s="19">
+        <v>2</v>
       </c>
       <c r="E127" s="20" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F127" s="26"/>
-      <c r="G127" s="26"/>
-      <c r="H127" s="21" t="s">
-        <v>246</v>
-      </c>
+      <c r="G127" s="26">
+        <v>43591</v>
+      </c>
+      <c r="H127" s="21"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
@@ -7005,18 +9416,22 @@
       <c r="B128" s="18">
         <v>43602</v>
       </c>
-      <c r="C128" s="20">
-        <v>4</v>
-      </c>
-      <c r="D128" s="20">
-        <v>19</v>
+      <c r="C128" s="19">
+        <v>2</v>
+      </c>
+      <c r="D128" s="19">
+        <v>3</v>
       </c>
       <c r="E128" s="20" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="F128" s="26"/>
-      <c r="G128" s="26"/>
-      <c r="H128" s="21"/>
+      <c r="G128" s="26">
+        <v>43591</v>
+      </c>
+      <c r="H128" s="21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
@@ -7025,17 +9440,19 @@
       <c r="B129" s="18">
         <v>43602</v>
       </c>
-      <c r="C129" s="20">
-        <v>5</v>
-      </c>
-      <c r="D129" s="20">
-        <v>1</v>
+      <c r="C129" s="19">
+        <v>2</v>
+      </c>
+      <c r="D129" s="19">
+        <v>4</v>
       </c>
       <c r="E129" s="20" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
+      <c r="G129" s="26">
+        <v>43591</v>
+      </c>
       <c r="H129" s="21"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -7045,17 +9462,19 @@
       <c r="B130" s="18">
         <v>43602</v>
       </c>
-      <c r="C130" s="20">
+      <c r="C130" s="19">
+        <v>2</v>
+      </c>
+      <c r="D130" s="19">
         <v>5</v>
       </c>
-      <c r="D130" s="20">
-        <v>2</v>
-      </c>
       <c r="E130" s="20" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="F130" s="26"/>
-      <c r="G130" s="26"/>
+      <c r="G130" s="26">
+        <v>43591</v>
+      </c>
       <c r="H130" s="21"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -7065,17 +9484,19 @@
       <c r="B131" s="18">
         <v>43602</v>
       </c>
-      <c r="C131" s="20">
-        <v>5</v>
-      </c>
-      <c r="D131" s="20">
-        <v>3</v>
+      <c r="C131" s="19">
+        <v>2</v>
+      </c>
+      <c r="D131" s="19">
+        <v>6</v>
       </c>
       <c r="E131" s="20" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
+      <c r="G131" s="26">
+        <v>43592</v>
+      </c>
       <c r="H131" s="21"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -7085,17 +9506,19 @@
       <c r="B132" s="18">
         <v>43602</v>
       </c>
-      <c r="C132" s="20">
-        <v>5</v>
-      </c>
-      <c r="D132" s="20">
-        <v>4</v>
+      <c r="C132" s="19">
+        <v>2</v>
+      </c>
+      <c r="D132" s="19">
+        <v>7</v>
       </c>
       <c r="E132" s="20" t="s">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
+      <c r="G132" s="26">
+        <v>43592</v>
+      </c>
       <c r="H132" s="21"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -7105,18 +9528,22 @@
       <c r="B133" s="18">
         <v>43602</v>
       </c>
-      <c r="C133" s="20">
-        <v>5</v>
-      </c>
-      <c r="D133" s="20">
-        <v>5</v>
+      <c r="C133" s="19">
+        <v>2</v>
+      </c>
+      <c r="D133" s="19">
+        <v>8</v>
       </c>
       <c r="E133" s="20" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="21"/>
+      <c r="G133" s="26">
+        <v>43592</v>
+      </c>
+      <c r="H133" s="21" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
@@ -7125,17 +9552,19 @@
       <c r="B134" s="18">
         <v>43602</v>
       </c>
-      <c r="C134" s="20">
-        <v>6</v>
-      </c>
-      <c r="D134" s="20">
-        <v>1</v>
+      <c r="C134" s="19">
+        <v>2</v>
+      </c>
+      <c r="D134" s="19">
+        <v>9</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
+      <c r="G134" s="26">
+        <v>43592</v>
+      </c>
       <c r="H134" s="21"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -7145,18 +9574,20 @@
       <c r="B135" s="18">
         <v>43602</v>
       </c>
-      <c r="C135" s="20">
-        <v>6</v>
-      </c>
-      <c r="D135" s="20">
-        <v>2</v>
+      <c r="C135" s="19">
+        <v>3</v>
+      </c>
+      <c r="D135" s="19">
+        <v>1</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
-      <c r="H135" s="21"/>
+      <c r="H135" s="21" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="22" t="s">
@@ -7165,25 +9596,699 @@
       <c r="B136" s="23">
         <v>43602</v>
       </c>
-      <c r="C136" s="24">
-        <v>7</v>
-      </c>
-      <c r="D136" s="24">
-        <v>1</v>
+      <c r="C136" s="19">
+        <v>3</v>
+      </c>
+      <c r="D136" s="19">
+        <v>2</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="F136" s="27"/>
       <c r="G136" s="27"/>
-      <c r="H136" s="25" t="s">
+      <c r="H136" s="25"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C137" s="19">
+        <v>3</v>
+      </c>
+      <c r="D137" s="19">
+        <v>3</v>
+      </c>
+      <c r="E137" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="21"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C138" s="19">
+        <v>3</v>
+      </c>
+      <c r="D138" s="19">
+        <v>4</v>
+      </c>
+      <c r="E138" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="21"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C139" s="19">
+        <v>3</v>
+      </c>
+      <c r="D139" s="19">
+        <v>5</v>
+      </c>
+      <c r="E139" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F139" s="26"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="21"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B140" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C140" s="19">
+        <v>3</v>
+      </c>
+      <c r="D140" s="19">
+        <v>6</v>
+      </c>
+      <c r="E140" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="21"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B141" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C141" s="19">
+        <v>3</v>
+      </c>
+      <c r="D141" s="19">
+        <v>7</v>
+      </c>
+      <c r="E141" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="21"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C142" s="19">
+        <v>3</v>
+      </c>
+      <c r="D142" s="19">
+        <v>8</v>
+      </c>
+      <c r="E142" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F142" s="26"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="21"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C143" s="19">
+        <v>4</v>
+      </c>
+      <c r="D143" s="19">
+        <v>1</v>
+      </c>
+      <c r="E143" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F143" s="26"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C144" s="19">
+        <v>4</v>
+      </c>
+      <c r="D144" s="19">
+        <v>2</v>
+      </c>
+      <c r="E144" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F144" s="26"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="21"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C145" s="19">
+        <v>4</v>
+      </c>
+      <c r="D145" s="19">
+        <v>3</v>
+      </c>
+      <c r="E145" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="21"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C146" s="19">
+        <v>4</v>
+      </c>
+      <c r="D146" s="19">
+        <v>4</v>
+      </c>
+      <c r="E146" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F146" s="26"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="21"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C147" s="19">
+        <v>4</v>
+      </c>
+      <c r="D147" s="19">
+        <v>5</v>
+      </c>
+      <c r="E147" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F147" s="26"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C148" s="19">
+        <v>4</v>
+      </c>
+      <c r="D148" s="19">
+        <v>6</v>
+      </c>
+      <c r="E148" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F148" s="26"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="21"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C149" s="19">
+        <v>4</v>
+      </c>
+      <c r="D149" s="19">
+        <v>7</v>
+      </c>
+      <c r="E149" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F149" s="26"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C150" s="19">
+        <v>4</v>
+      </c>
+      <c r="D150" s="19">
+        <v>8</v>
+      </c>
+      <c r="E150" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F150" s="26"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="21"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C151" s="19">
+        <v>4</v>
+      </c>
+      <c r="D151" s="19">
+        <v>9</v>
+      </c>
+      <c r="E151" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F151" s="26"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="21"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="23">
+        <v>43602</v>
+      </c>
+      <c r="C152" s="31">
+        <v>4</v>
+      </c>
+      <c r="D152" s="31">
+        <v>10</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="25"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C153" s="19">
+        <v>4</v>
+      </c>
+      <c r="D153" s="19">
+        <v>11</v>
+      </c>
+      <c r="E153" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F153" s="26"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="21"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C154" s="19">
+        <v>4</v>
+      </c>
+      <c r="D154" s="19">
+        <v>12</v>
+      </c>
+      <c r="E154" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F154" s="26"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="21"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C155" s="19">
+        <v>4</v>
+      </c>
+      <c r="D155" s="19">
+        <v>13</v>
+      </c>
+      <c r="E155" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C156" s="19">
+        <v>4</v>
+      </c>
+      <c r="D156" s="19">
+        <v>14</v>
+      </c>
+      <c r="E156" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F156" s="26"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="21"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C157" s="19">
+        <v>4</v>
+      </c>
+      <c r="D157" s="19">
+        <v>15</v>
+      </c>
+      <c r="E157" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F157" s="26"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C158" s="19">
+        <v>4</v>
+      </c>
+      <c r="D158" s="19">
+        <v>16</v>
+      </c>
+      <c r="E158" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F158" s="26"/>
+      <c r="G158" s="26"/>
+      <c r="H158" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B159" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C159" s="19">
+        <v>4</v>
+      </c>
+      <c r="D159" s="19">
+        <v>17</v>
+      </c>
+      <c r="E159" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="F159" s="26"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="21"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B160" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C160" s="19">
+        <v>4</v>
+      </c>
+      <c r="D160" s="19">
+        <v>18</v>
+      </c>
+      <c r="E160" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F160" s="26"/>
+      <c r="G160" s="26"/>
+      <c r="H160" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B161" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C161" s="19">
+        <v>4</v>
+      </c>
+      <c r="D161" s="19">
+        <v>19</v>
+      </c>
+      <c r="E161" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="F161" s="26"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="21"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B162" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C162" s="19">
+        <v>5</v>
+      </c>
+      <c r="D162" s="19">
+        <v>1</v>
+      </c>
+      <c r="E162" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F162" s="26"/>
+      <c r="G162" s="26"/>
+      <c r="H162" s="21"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B163" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C163" s="19">
+        <v>5</v>
+      </c>
+      <c r="D163" s="19">
+        <v>2</v>
+      </c>
+      <c r="E163" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F163" s="26"/>
+      <c r="G163" s="26"/>
+      <c r="H163" s="21"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B164" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C164" s="19">
+        <v>5</v>
+      </c>
+      <c r="D164" s="19">
+        <v>3</v>
+      </c>
+      <c r="E164" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F164" s="26"/>
+      <c r="G164" s="26"/>
+      <c r="H164" s="21"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B165" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C165" s="19">
+        <v>5</v>
+      </c>
+      <c r="D165" s="19">
+        <v>4</v>
+      </c>
+      <c r="E165" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="F165" s="26"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="21"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B166" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C166" s="19">
+        <v>5</v>
+      </c>
+      <c r="D166" s="19">
+        <v>5</v>
+      </c>
+      <c r="E166" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="F166" s="26"/>
+      <c r="G166" s="26"/>
+      <c r="H166" s="21"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B167" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C167" s="19">
+        <v>6</v>
+      </c>
+      <c r="D167" s="19">
+        <v>1</v>
+      </c>
+      <c r="E167" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F167" s="26"/>
+      <c r="G167" s="26"/>
+      <c r="H167" s="21"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B168" s="23">
+        <v>43602</v>
+      </c>
+      <c r="C168" s="31">
+        <v>6</v>
+      </c>
+      <c r="D168" s="31">
+        <v>2</v>
+      </c>
+      <c r="E168" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="25"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" s="18">
+        <v>43602</v>
+      </c>
+      <c r="C169" s="31">
+        <v>7</v>
+      </c>
+      <c r="D169" s="31">
+        <v>1</v>
+      </c>
+      <c r="E169" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="25" t="s">
         <v>314</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E136">
-    <cfRule type="beginsWith" dxfId="13" priority="1" operator="beginsWith" text="收到">
+  <conditionalFormatting sqref="E2:E169">
+    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="收到">
       <formula>LEFT(E2,LEN("收到"))="收到"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7193,4 +10298,232 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="5.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" s="37">
+        <v>43592</v>
+      </c>
+      <c r="C4" s="37">
+        <v>43593</v>
+      </c>
+      <c r="D4" s="37">
+        <v>43594</v>
+      </c>
+      <c r="E4" s="37">
+        <v>43595</v>
+      </c>
+      <c r="F4" s="37">
+        <v>43596.416666666664</v>
+      </c>
+      <c r="G4" s="37">
+        <v>43597</v>
+      </c>
+      <c r="H4" s="37">
+        <v>43598</v>
+      </c>
+      <c r="I4" s="37">
+        <v>43600</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="34">
+        <v>43600</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35">
+        <v>5</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35">
+        <v>2</v>
+      </c>
+      <c r="H6" s="35">
+        <v>5</v>
+      </c>
+      <c r="I6" s="35">
+        <v>1</v>
+      </c>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="34">
+        <v>43595</v>
+      </c>
+      <c r="B8" s="35">
+        <v>19</v>
+      </c>
+      <c r="C8" s="35">
+        <v>4</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1</v>
+      </c>
+      <c r="E8" s="35">
+        <v>2</v>
+      </c>
+      <c r="F8" s="35">
+        <v>1</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="34">
+        <v>43600</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="34">
+        <v>43602</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="34">
+        <v>43600</v>
+      </c>
+      <c r="B12" s="35">
+        <v>1</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35">
+        <v>5</v>
+      </c>
+      <c r="E12" s="35">
+        <v>3</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" s="35">
+        <v>20</v>
+      </c>
+      <c r="C13" s="35">
+        <v>4</v>
+      </c>
+      <c r="D13" s="35">
+        <v>11</v>
+      </c>
+      <c r="E13" s="35">
+        <v>5</v>
+      </c>
+      <c r="F13" s="35">
+        <v>1</v>
+      </c>
+      <c r="G13" s="35">
+        <v>2</v>
+      </c>
+      <c r="H13" s="35">
+        <v>5</v>
+      </c>
+      <c r="I13" s="35">
+        <v>1</v>
+      </c>
+      <c r="J13" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>